--- a/trunk/SEP/vlu_softwareProjectPlan_Ver01_k15t/vlu_softwareProjectPlan_Ver01_k15t.xlsx
+++ b/trunk/SEP/vlu_softwareProjectPlan_Ver01_k15t/vlu_softwareProjectPlan_Ver01_k15t.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15240" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="15240" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="planning" sheetId="1" r:id="rId1"/>
     <sheet name="evaluation" sheetId="2" r:id="rId2"/>
     <sheet name="teamsAndProjects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -172,12 +172,6 @@
     <t>Official Review by Department</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Planing+ PM</t>
-  </si>
-  <si>
     <t>Process review</t>
   </si>
   <si>
@@ -371,13 +365,19 @@
   </si>
   <si>
     <t>Evaluation Plan</t>
+  </si>
+  <si>
+    <t>Planing+ Project Management</t>
+  </si>
+  <si>
+    <t>Change Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,7 +407,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +468,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1049,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1131,6 +1137,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1373,7 +1380,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1408,7 +1414,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1584,19 +1589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -1604,7 +1609,7 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14">
@@ -1659,7 +1664,7 @@
         <v>41134</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
@@ -1699,58 +1704,58 @@
         <v>12</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="C3" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="57"/>
       <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="57"/>
       <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="34"/>
@@ -1758,17 +1763,17 @@
       <c r="I5" s="32"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="57"/>
       <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="J6" s="34"/>
       <c r="K6" s="33"/>
       <c r="L6" s="2"/>
@@ -1776,8 +1781,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="57"/>
       <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
@@ -1786,18 +1791,18 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="71"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="2"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="57"/>
       <c r="B8" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="2"/>
@@ -1808,15 +1813,15 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="74"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="75"/>
       <c r="N8" s="2"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="57"/>
       <c r="B9" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="2"/>
@@ -1828,55 +1833,55 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="74"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A10" s="57"/>
       <c r="B10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
+        <v>84</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
       <c r="O10" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A11" s="58"/>
       <c r="B11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
+        <v>85</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
       <c r="O11" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="59" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>18</v>
@@ -1895,10 +1900,10 @@
       <c r="N12" s="21"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+    <row r="13" spans="1:15">
+      <c r="A13" s="60"/>
       <c r="B13" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="2"/>
@@ -1914,10 +1919,10 @@
       <c r="N13" s="34"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A14" s="61"/>
       <c r="B14" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="5"/>
@@ -1933,56 +1938,56 @@
       <c r="N14" s="35"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
-        <v>24</v>
+    <row r="15" spans="1:15">
+      <c r="A15" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+    <row r="16" spans="1:15">
+      <c r="A16" s="63"/>
       <c r="B16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+    <row r="17" spans="1:15">
+      <c r="A17" s="63"/>
       <c r="B17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
@@ -1994,10 +1999,10 @@
       <c r="N17" s="34"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+    <row r="18" spans="1:15">
+      <c r="A18" s="63"/>
       <c r="B18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="2"/>
@@ -2005,7 +2010,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2014,10 +2019,10 @@
       <c r="N18" s="34"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="63"/>
       <c r="B19" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="2"/>
@@ -2028,18 +2033,18 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19" s="2"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:15">
+      <c r="A20" s="63"/>
       <c r="B20" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="2"/>
@@ -2053,14 +2058,14 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="63"/>
       <c r="B21" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="2"/>
@@ -2076,77 +2081,77 @@
       <c r="N21" s="2"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="63"/>
       <c r="B22" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="36"/>
       <c r="H22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A23" s="64"/>
       <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="L23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="M23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="O23" s="19"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
         <v>46</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2171,14 +2176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -2187,303 +2192,303 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
+      <c r="A1" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="37"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="101">
+      <c r="C2" s="102">
         <v>0.6</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="82">
+      <c r="D2" s="103"/>
+      <c r="E2" s="83">
         <v>0.4</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="18"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="103">
+        <v>49</v>
+      </c>
+      <c r="D4" s="104">
         <v>0.4</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="91">
         <v>0.4</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="94">
         <v>0.3</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="97">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57"/>
       <c r="B5" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="97"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="98"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57"/>
       <c r="B6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="48">
         <v>0.1</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="97"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="98"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="57"/>
       <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="48">
         <v>0.1</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="97"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="98"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="57"/>
       <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="48">
         <v>0.1</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="57"/>
       <c r="B9" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="48">
         <v>0.05</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="57"/>
       <c r="B10" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="48">
         <v>0</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="97"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="57"/>
       <c r="B11" s="42" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C11" s="48">
         <v>0</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="97"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A12" s="58"/>
       <c r="B12" s="43" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C12" s="52">
         <v>0.05</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="97"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
-        <v>24</v>
+      <c r="D12" s="99"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="98"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="86" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="96">
+        <v>49</v>
+      </c>
+      <c r="D13" s="97">
         <v>0.6</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="97"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="87"/>
       <c r="B14" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="97"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+        <v>49</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="98"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="87"/>
       <c r="B15" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="48">
         <v>0.1</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="97"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="87"/>
       <c r="B16" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="48">
         <v>0.1</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="97"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="98"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="87"/>
       <c r="B17" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="48">
         <v>0.05</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="97"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="98"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="87"/>
       <c r="B18" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="48">
         <v>0.1</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="97"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="87"/>
       <c r="B19" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="48">
         <v>0.05</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="97"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="98"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="87"/>
       <c r="B20" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="48">
         <v>0.1</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="97"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="98"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A21" s="88"/>
       <c r="B21" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="98"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="99"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="99"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2508,94 +2513,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
